--- a/DT_employees.xlsx
+++ b/DT_employees.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C8AC7E1-084B-42AE-8271-0AA97BE8A523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64205449-2A5E-4432-8421-2953FE58659B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2E126DA4-BEAF-4F1B-92E9-B4D279260BDF}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/DT_employees.xlsx
+++ b/DT_employees.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64205449-2A5E-4432-8421-2953FE58659B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A7C4D7-7DBE-4A67-A989-A8188F6D39BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2E126DA4-BEAF-4F1B-92E9-B4D279260BDF}"/>
   </bookViews>
   <sheets>
-    <sheet name="DT_employess" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,16 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
-  <si>
-    <t>08099444135</t>
-  </si>
-  <si>
-    <t>08099444136</t>
-  </si>
-  <si>
-    <t>08099444137</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>employees4@gmail.com</t>
   </si>
@@ -57,13 +48,40 @@
   </si>
   <si>
     <t xml:space="preserve">Data science </t>
+  </si>
+  <si>
+    <t>email address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department </t>
+  </si>
+  <si>
+    <t>Kingsley</t>
+  </si>
+  <si>
+    <t>Jimoh</t>
+  </si>
+  <si>
+    <t>Otis</t>
+  </si>
+  <si>
+    <t>hagu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact number </t>
+  </si>
+  <si>
+    <t>payee amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,7 +90,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,7 +115,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -94,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -102,16 +137,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -426,83 +541,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFC0219-E3BA-4B31-97D6-E192F6010A82}">
-  <dimension ref="B2:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD18139-B15C-485A-9E04-155E8D692C0F}">
+  <dimension ref="B3:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6">
+        <v>8099444135</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8099444136</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8099444133</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8099444137</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
+      <c r="F8" s="2">
         <v>5000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{0235ABD3-ED3A-4102-B566-B7311BA61894}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{DE97E83F-BA16-41F1-B6A4-C1E7661DF005}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{45E8AD1A-28CF-441E-A1F7-DB7927A78BCF}"/>
+    <hyperlink ref="D5" r:id="rId1" display="mailto:employees4@gmail.com" xr:uid="{F6C4E96B-5EB5-4E95-9169-5AFD689ADF8A}"/>
+    <hyperlink ref="D7" r:id="rId2" display="mailto:employees6@gmail.com" xr:uid="{30314F94-AA87-46B5-B26B-D7407E43B37D}"/>
+    <hyperlink ref="D8" r:id="rId3" display="mailto:employees7@gmail.com" xr:uid="{B17472FE-9C84-4C8B-835F-AA35452B0E55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>